--- a/RegistrationManager/RegistrationManager/bin/x64/Debug/netcoreapp3.1/Database/License_Details.xlsx
+++ b/RegistrationManager/RegistrationManager/bin/x64/Debug/netcoreapp3.1/Database/License_Details.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FYMSC\project\Project Code\License Manager &amp; Registration\Working\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FYMSC\project\Project Code\License Manager &amp; Registration\Working\RegistrationManager\RegistrationManager\bin\x64\Debug\netcoreapp3.1\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6451298-B1CA-4B6F-9654-AAB973F64CD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775385DF-CB9D-49DD-8050-48468E2366C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>Address</t>
   </si>
@@ -62,6 +62,108 @@
   </si>
   <si>
     <t>Install_Date</t>
+  </si>
+  <si>
+    <t>Soft Tech Ind</t>
+  </si>
+  <si>
+    <t>Sneha Nair</t>
+  </si>
+  <si>
+    <t>sneha123@gmail.com</t>
+  </si>
+  <si>
+    <t>7020742353</t>
+  </si>
+  <si>
+    <t>Keshav Nagar</t>
+  </si>
+  <si>
+    <t>Gurgaon</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>8698</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>product3</t>
+  </si>
+  <si>
+    <t>98RGXWEFUJ52MNMNMNRG52619930LKAC47POMN72817777SZ</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>Antech</t>
+  </si>
+  <si>
+    <t>Vikram Shrikhande</t>
+  </si>
+  <si>
+    <t>vikrambest1@gmail.com</t>
+  </si>
+  <si>
+    <t>9112324786</t>
+  </si>
+  <si>
+    <t>Success Square</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>411038</t>
+  </si>
+  <si>
+    <t>product1</t>
+  </si>
+  <si>
+    <t>365</t>
+  </si>
+  <si>
+    <t>Quick Heal</t>
+  </si>
+  <si>
+    <t>Santosh Rajaram</t>
+  </si>
+  <si>
+    <t>santosh19871@gmail.com</t>
+  </si>
+  <si>
+    <t>8612327786</t>
+  </si>
+  <si>
+    <t>Narimal Society</t>
+  </si>
+  <si>
+    <t>Aurangabad</t>
+  </si>
+  <si>
+    <t>41789</t>
+  </si>
+  <si>
+    <t>product2</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Output:</t>
   </si>
 </sst>
 </file>
@@ -204,7 +306,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,6 +484,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -545,8 +653,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -902,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,53 +1030,238 @@
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" customWidth="1"/>
-    <col min="12" max="12" width="47.7109375" customWidth="1"/>
+    <col min="12" max="12" width="41.5703125" customWidth="1"/>
     <col min="13" max="13" width="14.42578125" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="1">
+        <v>44396</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="1">
+        <v>44336</v>
+      </c>
+      <c r="N3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="1">
+        <v>44322</v>
+      </c>
+      <c r="N4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="1">
+        <v>44397</v>
+      </c>
+      <c r="N5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="str">
+        <f xml:space="preserve"> VLOOKUP(F3,A1:N5,1,TRUE)</f>
+        <v>Antech</v>
       </c>
     </row>
   </sheetData>
